--- a/software_components/app_server/ampa_members_manager_project/ampa_manager/static/templates/plantilla_importar_campamentos.xlsx
+++ b/software_components/app_server/ampa_members_manager_project/ampa_manager/static/templates/plantilla_importar_campamentos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\107596\Proyectos\ampa-manager\software_components\app_server\ampa_members_manager_project\ampa_manager\static\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danil\OneDrive\Documents\ampa-manager\software_components\app_server\ampa_members_manager_project\ampa_manager\static\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1427AB1-BC44-492E-9716-115B8EB41E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4295A9D8-0507-40B3-BA8E-3760E1F0D113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5805" yWindow="1590" windowWidth="24570" windowHeight="13620" tabRatio="294"/>
+    <workbookView xWindow="19815" yWindow="1230" windowWidth="31110" windowHeight="18585" tabRatio="294" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inscripciones" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Nombre y apellidos</t>
   </si>
@@ -82,12 +80,21 @@
   </si>
   <si>
     <t>ES7920808516426731166994</t>
+  </si>
+  <si>
+    <t>Familia</t>
+  </si>
+  <si>
+    <t>Correo*</t>
+  </si>
+  <si>
+    <t>lopez.perez@abendanoikastola.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,7 +150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -207,6 +214,17 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -222,42 +240,40 @@
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -266,9 +282,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -285,7 +305,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -580,105 +600,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="30" style="10" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="11" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="12"/>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="30" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
-    <row r="2" spans="1:8" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:9" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="G2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="I2" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>647551930</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>2013</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{1D8B897F-1914-4FF6-976C-1C34690661AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>